--- a/data/outputs/management/34.xlsx
+++ b/data/outputs/management/34.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ58"/>
+  <dimension ref="A1:BR58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -917,6 +922,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>3039771</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1126,6 +1136,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>3730835</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1339,6 +1354,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>3729929</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1536,6 +1556,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>3748763</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1733,6 +1758,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>3765491</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1934,6 +1964,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>3825175</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2127,6 +2162,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>3000097</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2324,6 +2364,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>3926537</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2509,6 +2554,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2698,6 +2744,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2879,6 +2926,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3080,6 +3128,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>3725823</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3285,6 +3338,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>4579352</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3482,6 +3540,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>3731128</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3679,6 +3742,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>2339168</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3884,6 +3952,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>2991024</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4089,6 +4162,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>2987945</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4294,6 +4372,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>3037165</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4495,6 +4578,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>3058155</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4696,6 +4784,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>3000040</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4893,6 +4986,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>3067195</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5090,6 +5188,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5279,6 +5378,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5464,6 +5564,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>2770817</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5649,6 +5754,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4389884</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5846,6 +5956,11 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>2561831</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6051,6 +6166,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>2968108</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6256,6 +6376,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>2987958</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6453,6 +6578,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>2990371</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6654,6 +6784,11 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>2423180</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6867,6 +7002,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>2500486</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7064,6 +7204,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>2516642</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7261,6 +7406,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>2561625</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7462,6 +7612,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>2517097</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7675,6 +7830,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>3983633</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7888,6 +8048,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>2640881</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8089,6 +8254,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>2559448</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8282,6 +8452,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8467,6 +8638,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8668,6 +8840,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>2193112</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8873,6 +9050,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>2991648</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9078,6 +9260,11 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>2260873</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9291,6 +9478,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>2459331</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9488,6 +9680,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>2614535</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9689,6 +9886,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>4512626</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9898,6 +10100,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>3747681</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10099,6 +10306,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10304,6 +10512,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>2395810</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10505,6 +10718,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10706,6 +10920,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10911,6 +11126,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>2778517</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11112,6 +11332,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11321,6 +11542,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>2722232</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11510,6 +11736,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>4512628</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11707,6 +11938,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>2774427</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11912,6 +12148,11 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr">
+        <is>
+          <t>2682828</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12117,6 +12358,11 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>2639090</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
